--- a/import_template_supplierinfo/tests/sample_empty_default_code.xlsx
+++ b/import_template_supplierinfo/tests/sample_empty_default_code.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">product_id</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t xml:space="preserve">supplier_code_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1122334455667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFSUPPLIER03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supplier_name_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supplier_code_03</t>
   </si>
 </sst>
 </file>
@@ -163,28 +175,28 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F1"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.89"/>
@@ -192,8 +204,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -266,10 +277,30 @@
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>33.33</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
